--- a/monitor_xlsx/20260129.xlsx
+++ b/monitor_xlsx/20260129.xlsx
@@ -519,12 +519,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.25%</t>
+          <t>4.23%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.64%</t>
+          <t>-0.49%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -545,12 +545,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5590.5$</t>
+          <t>5465.8$</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+5.45%</t>
+          <t>+3.10%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -571,12 +571,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31.31</t>
+          <t>31.27</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+0.64%</t>
+          <t>+0.51%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -597,12 +597,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8306.74</t>
+          <t>8320.39</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+2.34%</t>
+          <t>+0.16%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -623,12 +623,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16.35</t>
+          <t>16.88</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-0.00%</t>
+          <t>+3.24%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -655,22 +655,22 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>69.71億</t>
+          <t>183.86億</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>348.56億</t>
+          <t>919.3億</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16.09億</t>
+          <t>30.0億</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>321.8億</t>
+          <t>600.1億</t>
         </is>
       </c>
     </row>
@@ -687,18 +687,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-29.04億</t>
+          <t>-29.59億</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-56.37億</t>
+          <t>-28.66億</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-281.86億</t>
+          <t>-143.29億</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -743,7 +743,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-16.61億</t>
+          <t>-17.16億</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -791,28 +791,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>26.89億</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-38.82億</t>
+          <t>-24.34億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-194.08億</t>
+          <t>-121.7億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-25.93億</t>
+          <t>-23.32億</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-518.68億</t>
+          <t>-466.34億</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>69.71億</t>
+          <t>183.86億</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>348.56億</t>
+          <t>919.3億</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16.09億</t>
+          <t>30.0億</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>321.8億</t>
+          <t>600.1億</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-56.37億</t>
+          <t>-28.66億</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-281.86億</t>
+          <t>-143.29億</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-38.82億</t>
+          <t>-24.34億</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-194.08億</t>
+          <t>-121.7億</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-25.93億</t>
+          <t>-23.32億</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-518.68億</t>
+          <t>-466.34億</t>
         </is>
       </c>
     </row>

--- a/monitor_xlsx/20260129.xlsx
+++ b/monitor_xlsx/20260129.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="總覽" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="詳細數據" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="個股籌碼" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,8 +38,18 @@
       <b val="1"/>
       <sz val="14"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <color rgb="00008000"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -49,6 +60,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00CCCCCC"/>
         <bgColor rgb="00CCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
       </patternFill>
     </fill>
   </fills>
@@ -64,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -74,6 +91,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -545,12 +567,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5465.8$</t>
+          <t>5318.4$</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+3.10%</t>
+          <t>+0.32%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -665,12 +687,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>30.0億</t>
+          <t>34.08億</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>600.1億</t>
+          <t>681.57億</t>
         </is>
       </c>
     </row>
@@ -717,13 +739,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>134.57%</t>
+          <t>131.55%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>134.57%</t>
+          <t>131.55%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -888,7 +910,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30.0億</t>
+          <t>34.08億</t>
         </is>
       </c>
     </row>
@@ -900,7 +922,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>600.1億</t>
+          <t>681.57億</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1024,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>134.57%</t>
+          <t>131.55%</t>
         </is>
       </c>
     </row>
@@ -1021,4 +1043,910 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>個股籌碼監控報告 - 20260129</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>股票代號</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>股票名稱</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>收盤價</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>漲跌幅(%)</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>成交量(張)</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>外資當日(張)</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>外資5日累計</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>投信當日(張)</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>投信5日累計</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>自營商當日(張)</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>融資增減(張)</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>融資5日累計</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>借券增減(張)</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>MA20乖離(%)</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>籌碼評價</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0050</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0050</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>73.75</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="E4" t="n">
+        <v>119914</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>-28279</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3361</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1700</v>
+      </c>
+      <c r="I4" t="n">
+        <v>866</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44503</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7062</v>
+      </c>
+      <c r="L4" t="n">
+        <v>36064</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-3975503</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>00708L</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S&amp;P黃金正2</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>210</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-541</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-60</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-70</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9094</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9338</v>
+      </c>
+      <c r="L5" t="n">
+        <v>38507</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-22201</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>主力積極賣出</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1519</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>華城</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4703</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>174</v>
+      </c>
+      <c r="G6" t="n">
+        <v>799</v>
+      </c>
+      <c r="H6" t="n">
+        <v>59</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-588</v>
+      </c>
+      <c r="J6" t="n">
+        <v>157</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2739</v>
+      </c>
+      <c r="L6" t="n">
+        <v>14321</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-78648</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-2.12</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1605</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>華新</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>44</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E7" t="n">
+        <v>286253</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>-4211</v>
+      </c>
+      <c r="G7" t="n">
+        <v>23921</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6125</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7012</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7756</v>
+      </c>
+      <c r="K7" t="n">
+        <v>84102</v>
+      </c>
+      <c r="L7" t="n">
+        <v>388683</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-1104426</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2308</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>台達電</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1255</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13505</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>-947</v>
+      </c>
+      <c r="G8" t="n">
+        <v>370</v>
+      </c>
+      <c r="H8" t="n">
+        <v>56</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1818</v>
+      </c>
+      <c r="J8" t="n">
+        <v>475</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6754</v>
+      </c>
+      <c r="L8" t="n">
+        <v>41447</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-648590</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2330</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>台積電</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1805</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36079</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>-8629</v>
+      </c>
+      <c r="G9" t="n">
+        <v>143</v>
+      </c>
+      <c r="H9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3765</v>
+      </c>
+      <c r="J9" t="n">
+        <v>691</v>
+      </c>
+      <c r="K9" t="n">
+        <v>19907</v>
+      </c>
+      <c r="L9" t="n">
+        <v>101732</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-6482788</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2344</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>華邦電</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>130</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E10" t="n">
+        <v>391188</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>-9530</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-29698</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2445</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18007</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6032</v>
+      </c>
+      <c r="K10" t="n">
+        <v>147377</v>
+      </c>
+      <c r="L10" t="n">
+        <v>713069</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1105481</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>偏空</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2383</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>台光電</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1790</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>-5.79</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4284</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>-334</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4787</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-440</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-343</v>
+      </c>
+      <c r="J11" t="n">
+        <v>324</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2053</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10459</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-89489</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3661</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>世芯-KY</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3270</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2536</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>-610</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-203</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-143</v>
+      </c>
+      <c r="J12" t="n">
+        <v>127</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5961</v>
+      </c>
+      <c r="L12" t="n">
+        <v>28881</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-19721</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>主力積極賣出</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4958</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>臻鼎-KY</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>178</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E13" t="n">
+        <v>39138</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>-569</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4701</v>
+      </c>
+      <c r="H13" t="n">
+        <v>115</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1119</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1465</v>
+      </c>
+      <c r="K13" t="n">
+        <v>31044</v>
+      </c>
+      <c r="L13" t="n">
+        <v>106786</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-267475</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6442</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>光聖</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5913</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>2005</v>
+      </c>
+      <c r="G14" t="n">
+        <v>491</v>
+      </c>
+      <c r="H14" t="n">
+        <v>153</v>
+      </c>
+      <c r="I14" t="n">
+        <v>297</v>
+      </c>
+      <c r="J14" t="n">
+        <v>264</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4528</v>
+      </c>
+      <c r="L14" t="n">
+        <v>25675</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-19146</v>
+      </c>
+      <c r="N14" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>偏多</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3081</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>聯亞</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1095</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>903</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1428</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1126</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1432</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-290</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-678</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-36</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3260</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>威剛</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>-5.59</v>
+      </c>
+      <c r="E16" t="n">
+        <v>23943</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>-1222</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-6703</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-282</v>
+      </c>
+      <c r="I16" t="n">
+        <v>965</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-243</v>
+      </c>
+      <c r="K16" t="n">
+        <v>280</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4584</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>偏空</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3265</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>台新科</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>136</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1285</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>-239</v>
+      </c>
+      <c r="G17" t="n">
+        <v>289</v>
+      </c>
+      <c r="H17" t="n">
+        <v>211</v>
+      </c>
+      <c r="I17" t="n">
+        <v>736</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-120</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-784</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>主力積極買進</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4979</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>華星光</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>314</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="E18" t="n">
+        <v>29576</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>2460</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-5142</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2508</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2918</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-270</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-971</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-2749</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/monitor_xlsx/20260129.xlsx
+++ b/monitor_xlsx/20260129.xlsx
@@ -43,10 +43,10 @@
       <color rgb="00FFFFFF"/>
     </font>
     <font>
-      <color rgb="00FF0000"/>
+      <color rgb="00008000"/>
     </font>
     <font>
-      <color rgb="00008000"/>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="4">
@@ -94,8 +94,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -687,12 +687,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>34.08億</t>
+          <t>30.0億</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>681.57億</t>
+          <t>600.1億</t>
         </is>
       </c>
     </row>
@@ -739,13 +739,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>131.55%</t>
+          <t>177.55%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>131.55%</t>
+          <t>177.55%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -819,22 +819,22 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-24.34億</t>
+          <t>-29.5億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-121.7億</t>
+          <t>-147.51億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-23.32億</t>
+          <t>-21.34億</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-466.34億</t>
+          <t>-426.78億</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>34.08億</t>
+          <t>30.0億</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>681.57億</t>
+          <t>600.1億</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-24.34億</t>
+          <t>-29.5億</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-121.7億</t>
+          <t>-147.51億</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-23.32億</t>
+          <t>-21.34億</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-466.34億</t>
+          <t>-426.78億</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>131.55%</t>
+          <t>177.55%</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,6 +1074,13 @@
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
     <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="12" customWidth="1" min="19" max="19"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="12" customWidth="1" min="21" max="21"/>
+    <col width="10" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1159,6 +1166,41 @@
           <t>籌碼評價</t>
         </is>
       </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>買賣券商差</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>籌碼集中度5D(%)</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>借券賣出餘額</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>短回補天數</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>VWAP20D</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>VWAP乖離(%)</t>
+        </is>
+      </c>
+      <c r="V3" s="5" t="inlineStr">
+        <is>
+          <t>資料來源</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1171,45 +1213,41 @@
           <t>0050</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>73.75</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="E4" t="n">
-        <v>119914</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>-28279</v>
-      </c>
       <c r="G4" t="n">
-        <v>3361</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>866</v>
-      </c>
-      <c r="J4" t="n">
-        <v>44503</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7062</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36064</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-3975503</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>偏多</t>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R4" t="n">
+        <v>116023000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="T4" t="n">
+        <v>71.08</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1224,33 +1262,41 @@
           <t>S&amp;P黃金正2</t>
         </is>
       </c>
-      <c r="F5" s="6" t="n">
-        <v>210</v>
-      </c>
       <c r="G5" t="n">
-        <v>-541</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9094</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9338</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>38507</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-22201</v>
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>主力積極賣出</t>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1551000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="T5" t="n">
+        <v>112.96</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1265,45 +1311,41 @@
           <t>華城</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1015</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4703</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>174</v>
-      </c>
       <c r="G6" t="n">
-        <v>799</v>
-      </c>
-      <c r="H6" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-588</v>
-      </c>
-      <c r="J6" t="n">
-        <v>157</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2739</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>14321</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-78648</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.12</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>中性</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>-21</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3661000</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="T6" t="n">
+        <v>917.42</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1318,45 +1360,41 @@
           <t>華新</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>44</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="E7" t="n">
-        <v>286253</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>-4211</v>
-      </c>
       <c r="G7" t="n">
-        <v>23921</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6125</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7012</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7756</v>
-      </c>
-      <c r="K7" t="n">
-        <v>84102</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>388683</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-1104426</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.07</v>
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>偏多</t>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>-33</v>
+      </c>
+      <c r="Q7" s="7" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="R7" t="n">
+        <v>172248918</v>
+      </c>
+      <c r="S7" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="T7" t="n">
+        <v>40.39</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1371,45 +1409,41 @@
           <t>台達電</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>1255</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>-1.95</v>
-      </c>
-      <c r="E8" t="n">
-        <v>13505</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>-947</v>
-      </c>
       <c r="G8" t="n">
-        <v>370</v>
-      </c>
-      <c r="H8" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1818</v>
-      </c>
-      <c r="J8" t="n">
-        <v>475</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6754</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>41447</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-648590</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>偏多</t>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="7" t="n">
+        <v>-6.92</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2170680</v>
+      </c>
+      <c r="S8" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1119.33</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1424,45 +1458,41 @@
           <t>台積電</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>1805</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>-0.82</v>
-      </c>
-      <c r="E9" t="n">
-        <v>36079</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>-8629</v>
-      </c>
       <c r="G9" t="n">
-        <v>143</v>
-      </c>
-      <c r="H9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3765</v>
-      </c>
-      <c r="J9" t="n">
-        <v>691</v>
-      </c>
-      <c r="K9" t="n">
-        <v>19907</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>101732</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-6482788</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>偏多</t>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1550680</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1715.16</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1477,45 +1507,41 @@
           <t>華邦電</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>130</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E10" t="n">
-        <v>391188</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>-9530</v>
-      </c>
       <c r="G10" t="n">
-        <v>-29698</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2445</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>18007</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6032</v>
-      </c>
-      <c r="K10" t="n">
-        <v>147377</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>713069</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-1105481</v>
-      </c>
-      <c r="N10" t="n">
-        <v>15.45</v>
+        <v>0</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>偏空</t>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="7" t="n">
+        <v>-8.32</v>
+      </c>
+      <c r="R10" t="n">
+        <v>28385000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="T10" t="n">
+        <v>106.43</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1530,45 +1556,41 @@
           <t>台光電</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>1790</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>-5.79</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4284</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>-334</v>
-      </c>
       <c r="G11" t="n">
-        <v>4787</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-440</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-343</v>
-      </c>
-      <c r="J11" t="n">
-        <v>324</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2053</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>10459</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-89489</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
           <t>中性</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="6" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2252528</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1660.73</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1583,45 +1605,41 @@
           <t>世芯-KY</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>3270</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>-2.97</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2536</v>
-      </c>
-      <c r="F12" s="7" t="n">
-        <v>-610</v>
-      </c>
       <c r="G12" t="n">
-        <v>-203</v>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-143</v>
-      </c>
-      <c r="J12" t="n">
-        <v>127</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5961</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>28881</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-19721</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.96</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>主力積極賣出</t>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>-27</v>
+      </c>
+      <c r="Q12" s="6" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5046503</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3503.13</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1636,45 +1654,41 @@
           <t>臻鼎-KY</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>178</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E13" t="n">
-        <v>39138</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>-569</v>
-      </c>
       <c r="G13" t="n">
-        <v>4701</v>
-      </c>
-      <c r="H13" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1119</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1465</v>
-      </c>
-      <c r="K13" t="n">
-        <v>31044</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>106786</v>
-      </c>
-      <c r="M13" t="n">
-        <v>-267475</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.83</v>
+        <v>0</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
           <t>中性</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>-18</v>
+      </c>
+      <c r="Q13" s="6" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="R13" t="n">
+        <v>19168945</v>
+      </c>
+      <c r="S13" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="T13" t="n">
+        <v>166.7</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1689,45 +1703,41 @@
           <t>光聖</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>1725</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5913</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>2005</v>
-      </c>
       <c r="G14" t="n">
-        <v>491</v>
-      </c>
-      <c r="H14" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>297</v>
-      </c>
-      <c r="J14" t="n">
-        <v>264</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4528</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>25675</v>
-      </c>
-      <c r="M14" t="n">
-        <v>-19146</v>
-      </c>
-      <c r="N14" t="n">
-        <v>24.1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>偏多</t>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="7" t="n">
+        <v>-5.06</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2278000</v>
+      </c>
+      <c r="S14" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1370.43</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1742,45 +1752,41 @@
           <t>聯亞</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>1095</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>903</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>1428</v>
-      </c>
       <c r="G15" t="n">
-        <v>-1126</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1432</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-290</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-678</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-36</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
           <t>中性</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2469400</v>
+      </c>
+      <c r="S15" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="T15" t="n">
+        <v>759.04</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1795,45 +1801,41 @@
           <t>威剛</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>-5.59</v>
-      </c>
-      <c r="E16" t="n">
-        <v>23943</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v>-1222</v>
-      </c>
       <c r="G16" t="n">
-        <v>-6703</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-282</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>965</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-243</v>
-      </c>
-      <c r="K16" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>4584</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>偏空</t>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>-30</v>
+      </c>
+      <c r="Q16" s="7" t="n">
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7587640</v>
+      </c>
+      <c r="S16" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="T16" t="n">
+        <v>328.37</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1848,45 +1850,41 @@
           <t>台新科</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>136</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1285</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <v>-239</v>
-      </c>
       <c r="G17" t="n">
-        <v>289</v>
-      </c>
-      <c r="H17" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>736</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-784</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>主力積極買進</t>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2341000</v>
+      </c>
+      <c r="S17" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="T17" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1901,45 +1899,90 @@
           <t>華星光</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>314</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>-1.72</v>
-      </c>
-      <c r="E18" t="n">
-        <v>29576</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>2460</v>
-      </c>
       <c r="G18" t="n">
-        <v>-5142</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2508</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2918</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-270</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-971</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-2749</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
           <t>中性</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>-40</v>
+      </c>
+      <c r="Q18" s="7" t="n">
+        <v>-4.64</v>
+      </c>
+      <c r="R18" t="n">
+        <v>11563993</v>
+      </c>
+      <c r="S18" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>302.11</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>景碩</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Q19" s="6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7265826</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="T19" t="n">
+        <v>196.36</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>

--- a/monitor_xlsx/20260129.xlsx
+++ b/monitor_xlsx/20260129.xlsx
@@ -43,10 +43,10 @@
       <color rgb="00FFFFFF"/>
     </font>
     <font>
-      <color rgb="00008000"/>
+      <color rgb="00FF0000"/>
     </font>
     <font>
-      <color rgb="00FF0000"/>
+      <color rgb="00008000"/>
     </font>
   </fonts>
   <fills count="4">
@@ -94,8 +94,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -739,13 +739,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>177.55%</t>
+          <t>128.92%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>177.55%</t>
+          <t>128.92%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -819,22 +819,22 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-29.5億</t>
+          <t>-24.34億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-147.51億</t>
+          <t>-121.7億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-21.34億</t>
+          <t>-23.32億</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-426.78億</t>
+          <t>-466.34億</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-29.5億</t>
+          <t>-24.34億</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-147.51億</t>
+          <t>-121.7億</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-21.34億</t>
+          <t>-23.32億</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-426.78億</t>
+          <t>-466.34億</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>177.55%</t>
+          <t>128.92%</t>
         </is>
       </c>
     </row>
@@ -1213,18 +1213,45 @@
           <t>0050</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>73.75</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="E4" t="n">
+        <v>119914</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>-28279</v>
+      </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3361</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1700</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>866</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44503</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7062</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>36064</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-3975503</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.43</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>偏多</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -1237,13 +1264,13 @@
         <v>116023000</v>
       </c>
       <c r="S4" t="n">
-        <v>17.54</v>
+        <v>1.37</v>
       </c>
       <c r="T4" t="n">
         <v>71.08</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1262,18 +1289,33 @@
           <t>S&amp;P黃金正2</t>
         </is>
       </c>
+      <c r="F5" s="6" t="n">
+        <v>210</v>
+      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-541</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-60</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-70</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9094</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9338</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>38507</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-22201</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>主力積極賣出</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -1311,14 +1353,41 @@
           <t>華城</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4703</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>174</v>
+      </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>799</v>
+      </c>
+      <c r="H6" t="n">
+        <v>59</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-588</v>
+      </c>
+      <c r="J6" t="n">
+        <v>157</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2739</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>14321</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-78648</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-2.12</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1335,13 +1404,13 @@
         <v>3661000</v>
       </c>
       <c r="S6" t="n">
-        <v>8.550000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="T6" t="n">
         <v>917.42</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>10.64</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1360,18 +1429,45 @@
           <t>華新</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>44</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E7" t="n">
+        <v>286253</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>-4211</v>
+      </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>23921</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6125</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>7012</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7756</v>
+      </c>
+      <c r="K7" t="n">
+        <v>84102</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>388683</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-1104426</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.07</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>偏多</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -1384,13 +1480,13 @@
         <v>172248918</v>
       </c>
       <c r="S7" t="n">
-        <v>21.68</v>
+        <v>1.31</v>
       </c>
       <c r="T7" t="n">
         <v>40.39</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>8.94</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1409,18 +1505,45 @@
           <t>台達電</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>1255</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13505</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>-947</v>
+      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>370</v>
+      </c>
+      <c r="H8" t="n">
+        <v>56</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1818</v>
+      </c>
+      <c r="J8" t="n">
+        <v>475</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6754</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>41447</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-648590</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.16</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>偏多</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1433,13 +1556,13 @@
         <v>2170680</v>
       </c>
       <c r="S8" t="n">
-        <v>7.15</v>
+        <v>0.15</v>
       </c>
       <c r="T8" t="n">
         <v>1119.33</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>12.12</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1458,18 +1581,45 @@
           <t>台積電</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>1805</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36079</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>-8629</v>
+      </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>143</v>
+      </c>
+      <c r="H9" t="n">
+        <v>15</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3765</v>
+      </c>
+      <c r="J9" t="n">
+        <v>691</v>
+      </c>
+      <c r="K9" t="n">
+        <v>19907</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>101732</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-6482788</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.58</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>偏多</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1482,13 +1632,13 @@
         <v>1550680</v>
       </c>
       <c r="S9" t="n">
-        <v>5.97</v>
+        <v>0.05</v>
       </c>
       <c r="T9" t="n">
         <v>1715.16</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>5.24</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1507,18 +1657,45 @@
           <t>華邦電</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>130</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E10" t="n">
+        <v>391188</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>-9530</v>
+      </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-29698</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2445</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>18007</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6032</v>
+      </c>
+      <c r="K10" t="n">
+        <v>147377</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>713069</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1105481</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15.45</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>偏空</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1531,13 +1708,13 @@
         <v>28385000</v>
       </c>
       <c r="S10" t="n">
-        <v>17.38</v>
+        <v>0.22</v>
       </c>
       <c r="T10" t="n">
         <v>106.43</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>22.15</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1556,14 +1733,41 @@
           <t>台光電</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>1790</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>-5.79</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4284</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>-334</v>
+      </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4787</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-440</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-343</v>
+      </c>
+      <c r="J11" t="n">
+        <v>324</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2053</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>10459</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-89489</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.34</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1580,13 +1784,13 @@
         <v>2252528</v>
       </c>
       <c r="S11" t="n">
-        <v>6.71</v>
+        <v>0.53</v>
       </c>
       <c r="T11" t="n">
         <v>1660.73</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.78</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1605,18 +1809,45 @@
           <t>世芯-KY</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>3270</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2536</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>-610</v>
+      </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-203</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-143</v>
+      </c>
+      <c r="J12" t="n">
+        <v>127</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5961</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>28881</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-19721</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-3.96</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>主力積極賣出</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1629,13 +1860,13 @@
         <v>5046503</v>
       </c>
       <c r="S12" t="n">
-        <v>5.53</v>
+        <v>2.3</v>
       </c>
       <c r="T12" t="n">
         <v>3503.13</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-6.65</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1654,18 +1885,45 @@
           <t>臻鼎-KY</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>178</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E13" t="n">
+        <v>39138</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>-569</v>
+      </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1425</v>
+      </c>
+      <c r="H13" t="n">
+        <v>115</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1145</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1465</v>
+      </c>
+      <c r="K13" t="n">
+        <v>31044</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>106786</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-267475</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.83</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>主力積極賣出</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1678,13 +1936,13 @@
         <v>19168945</v>
       </c>
       <c r="S13" t="n">
-        <v>15.03</v>
+        <v>1.13</v>
       </c>
       <c r="T13" t="n">
         <v>166.7</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>6.78</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1703,18 +1961,45 @@
           <t>光聖</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5913</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>2005</v>
+      </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>491</v>
+      </c>
+      <c r="H14" t="n">
+        <v>153</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>297</v>
+      </c>
+      <c r="J14" t="n">
+        <v>264</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4528</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>25675</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-19146</v>
+      </c>
+      <c r="N14" t="n">
+        <v>24.1</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>偏多</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -1727,13 +2012,13 @@
         <v>2278000</v>
       </c>
       <c r="S14" t="n">
-        <v>11.01</v>
+        <v>0.79</v>
       </c>
       <c r="T14" t="n">
         <v>1370.43</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>25.87</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1752,13 +2037,40 @@
           <t>聯亞</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-9.69</v>
+      </c>
+      <c r="E15" t="n">
+        <v>744</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1428</v>
+      </c>
       <c r="G15" t="n">
+        <v>-1126</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1432</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-290</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-678</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-36</v>
+      </c>
+      <c r="M15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
@@ -1776,13 +2088,13 @@
         <v>2469400</v>
       </c>
       <c r="S15" t="n">
-        <v>22.32</v>
+        <v>3.32</v>
       </c>
       <c r="T15" t="n">
         <v>759.04</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>35.04</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1801,18 +2113,45 @@
           <t>威剛</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>26864</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>-1222</v>
+      </c>
       <c r="G16" t="n">
+        <v>-6703</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-282</v>
+      </c>
+      <c r="I16" t="n">
+        <v>965</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-243</v>
+      </c>
+      <c r="K16" t="n">
+        <v>280</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4584</v>
+      </c>
+      <c r="M16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
+      <c r="N16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>偏空</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -1825,13 +2164,13 @@
         <v>7587640</v>
       </c>
       <c r="S16" t="n">
-        <v>9.19</v>
+        <v>0.28</v>
       </c>
       <c r="T16" t="n">
         <v>328.37</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1850,18 +2189,45 @@
           <t>台新科</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>136</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2294</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>-239</v>
+      </c>
       <c r="G17" t="n">
+        <v>289</v>
+      </c>
+      <c r="H17" t="n">
+        <v>211</v>
+      </c>
+      <c r="I17" t="n">
+        <v>736</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-120</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-784</v>
+      </c>
+      <c r="M17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
+      <c r="N17" t="n">
         <v>0</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>主力積極買進</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -1874,13 +2240,13 @@
         <v>2341000</v>
       </c>
       <c r="S17" t="n">
-        <v>6.47</v>
+        <v>1.02</v>
       </c>
       <c r="T17" t="n">
         <v>138.3</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.66</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1899,13 +2265,40 @@
           <t>華星光</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>319</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>-2.74</v>
+      </c>
+      <c r="E18" t="n">
+        <v>23662</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>2460</v>
+      </c>
       <c r="G18" t="n">
+        <v>-5142</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2508</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2918</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-270</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-971</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-2749</v>
+      </c>
+      <c r="M18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
@@ -1923,13 +2316,13 @@
         <v>11563993</v>
       </c>
       <c r="S18" t="n">
-        <v>27.6</v>
+        <v>0.49</v>
       </c>
       <c r="T18" t="n">
         <v>302.11</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -1948,18 +2341,45 @@
           <t>景碩</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-5.75</v>
+      </c>
+      <c r="E19" t="n">
+        <v>39665</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>-3672</v>
+      </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>5805</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1595</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4181</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2337</v>
+      </c>
+      <c r="K19" t="n">
+        <v>29000</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>156971</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-114093</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.37</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>中性</t>
+          <t>偏多</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -1972,13 +2392,13 @@
         <v>7265826</v>
       </c>
       <c r="S19" t="n">
-        <v>5.77</v>
+        <v>0.2</v>
       </c>
       <c r="T19" t="n">
         <v>196.36</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>16.88</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>

--- a/monitor_xlsx/20260129.xlsx
+++ b/monitor_xlsx/20260129.xlsx
@@ -687,12 +687,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>30.0億</t>
+          <t>52.03億</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>600.1億</t>
+          <t>1040.59億</t>
         </is>
       </c>
     </row>
@@ -739,13 +739,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>128.92%</t>
+          <t>158.39%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>128.92%</t>
+          <t>170.5%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -910,7 +910,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30.0億</t>
+          <t>52.03億</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>600.1億</t>
+          <t>1040.59億</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>128.92%</t>
+          <t>170.5%</t>
         </is>
       </c>
     </row>
@@ -1247,34 +1247,16 @@
         <v>-3975503</v>
       </c>
       <c r="N4" t="n">
-        <v>1.43</v>
+        <v>-0.79</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>偏多</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R4" t="n">
-        <v>116023000</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T4" t="n">
-        <v>71.08</v>
-      </c>
-      <c r="U4" t="n">
-        <v>3.76</v>
-      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1318,27 +1300,9 @@
           <t>主力積極賣出</t>
         </is>
       </c>
-      <c r="P5" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>-3.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1551000</v>
-      </c>
-      <c r="S5" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="T5" t="n">
-        <v>112.96</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1387,34 +1351,16 @@
         <v>-78648</v>
       </c>
       <c r="N6" t="n">
-        <v>-2.12</v>
+        <v>21.14</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>中性</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v>-21</v>
-      </c>
-      <c r="Q6" s="6" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3661000</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="T6" t="n">
-        <v>917.42</v>
-      </c>
-      <c r="U6" t="n">
-        <v>10.64</v>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1463,34 +1409,16 @@
         <v>-1104426</v>
       </c>
       <c r="N7" t="n">
-        <v>9.07</v>
+        <v>23.04</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>偏多</t>
         </is>
       </c>
-      <c r="P7" t="n">
-        <v>-33</v>
-      </c>
-      <c r="Q7" s="7" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="R7" t="n">
-        <v>172248918</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T7" t="n">
-        <v>40.39</v>
-      </c>
-      <c r="U7" t="n">
-        <v>8.94</v>
-      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1539,34 +1467,16 @@
         <v>-648590</v>
       </c>
       <c r="N8" t="n">
-        <v>0.16</v>
+        <v>21.82</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>偏多</t>
         </is>
       </c>
-      <c r="P8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="7" t="n">
-        <v>-6.92</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2170680</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1119.33</v>
-      </c>
-      <c r="U8" t="n">
-        <v>12.12</v>
-      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1615,34 +1525,16 @@
         <v>-6482788</v>
       </c>
       <c r="N9" t="n">
-        <v>1.58</v>
+        <v>23.09</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>偏多</t>
         </is>
       </c>
-      <c r="P9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="6" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1550680</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1715.16</v>
-      </c>
-      <c r="U9" t="n">
-        <v>5.24</v>
-      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1691,34 +1583,16 @@
         <v>-1105481</v>
       </c>
       <c r="N10" t="n">
-        <v>15.45</v>
+        <v>37.67</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>偏空</t>
         </is>
       </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="7" t="n">
-        <v>-8.32</v>
-      </c>
-      <c r="R10" t="n">
-        <v>28385000</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T10" t="n">
-        <v>106.43</v>
-      </c>
-      <c r="U10" t="n">
-        <v>22.15</v>
-      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1767,34 +1641,16 @@
         <v>-89489</v>
       </c>
       <c r="N11" t="n">
-        <v>0.34</v>
+        <v>24.4</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
           <t>中性</t>
         </is>
       </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="6" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2252528</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1660.73</v>
-      </c>
-      <c r="U11" t="n">
-        <v>7.78</v>
-      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1843,34 +1699,16 @@
         <v>-19721</v>
       </c>
       <c r="N12" t="n">
-        <v>-3.96</v>
+        <v>19.49</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>主力積極賣出</t>
         </is>
       </c>
-      <c r="P12" t="n">
-        <v>-27</v>
-      </c>
-      <c r="Q12" s="6" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5046503</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3503.13</v>
-      </c>
-      <c r="U12" t="n">
-        <v>-6.65</v>
-      </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1898,13 +1736,13 @@
         <v>-569</v>
       </c>
       <c r="G13" t="n">
-        <v>-1425</v>
+        <v>4701</v>
       </c>
       <c r="H13" t="n">
         <v>115</v>
       </c>
       <c r="I13" t="n">
-        <v>-1145</v>
+        <v>-1119</v>
       </c>
       <c r="J13" t="n">
         <v>1465</v>
@@ -1919,34 +1757,16 @@
         <v>-267475</v>
       </c>
       <c r="N13" t="n">
-        <v>5.83</v>
+        <v>19.61</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>主力積極賣出</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>-18</v>
-      </c>
-      <c r="Q13" s="6" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="R13" t="n">
-        <v>19168945</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T13" t="n">
-        <v>166.7</v>
-      </c>
-      <c r="U13" t="n">
-        <v>6.78</v>
+          <t>中性</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1995,34 +1815,16 @@
         <v>-19146</v>
       </c>
       <c r="N14" t="n">
-        <v>24.1</v>
+        <v>55.09</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
           <t>偏多</t>
         </is>
       </c>
-      <c r="P14" t="n">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="7" t="n">
-        <v>-5.06</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2278000</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1370.43</v>
-      </c>
-      <c r="U14" t="n">
-        <v>25.87</v>
-      </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2038,13 +1840,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-9.69</v>
+        <v>-2.44</v>
       </c>
       <c r="E15" t="n">
-        <v>744</v>
+        <v>905</v>
       </c>
       <c r="F15" s="6" t="n">
         <v>1428</v>
@@ -2078,27 +1880,9 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2469400</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="T15" t="n">
-        <v>759.04</v>
-      </c>
-      <c r="U15" t="n">
-        <v>35.04</v>
-      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2114,13 +1898,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>333.5</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>0.15</v>
+        <v>306.5</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>-8.1</v>
       </c>
       <c r="E16" t="n">
-        <v>26864</v>
+        <v>26486</v>
       </c>
       <c r="F16" s="7" t="n">
         <v>-1222</v>
@@ -2154,27 +1938,9 @@
           <t>偏空</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>-30</v>
-      </c>
-      <c r="Q16" s="7" t="n">
-        <v>-8.800000000000001</v>
-      </c>
-      <c r="R16" t="n">
-        <v>7587640</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T16" t="n">
-        <v>328.37</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.56</v>
-      </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2190,13 +1956,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>136</v>
+        <v>132.5</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-2.51</v>
+        <v>-2.57</v>
       </c>
       <c r="E17" t="n">
-        <v>2294</v>
+        <v>1591</v>
       </c>
       <c r="F17" s="7" t="n">
         <v>-239</v>
@@ -2230,27 +1996,9 @@
           <t>主力積極買進</t>
         </is>
       </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="6" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2341000</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="T17" t="n">
-        <v>138.3</v>
-      </c>
-      <c r="U17" t="n">
-        <v>-1.66</v>
-      </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2266,13 +2014,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>319</v>
+        <v>318.5</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>-2.74</v>
+        <v>-0.16</v>
       </c>
       <c r="E18" t="n">
-        <v>23662</v>
+        <v>20497</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>2460</v>
@@ -2306,27 +2054,9 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="P18" t="n">
-        <v>-40</v>
-      </c>
-      <c r="Q18" s="7" t="n">
-        <v>-4.64</v>
-      </c>
-      <c r="R18" t="n">
-        <v>11563993</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="T18" t="n">
-        <v>302.11</v>
-      </c>
-      <c r="U18" t="n">
-        <v>5.59</v>
-      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2375,34 +2105,16 @@
         <v>-114093</v>
       </c>
       <c r="N19" t="n">
-        <v>4.37</v>
+        <v>23.88</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
           <t>偏多</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>-5</v>
-      </c>
-      <c r="Q19" s="6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>7265826</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T19" t="n">
-        <v>196.36</v>
-      </c>
-      <c r="U19" t="n">
-        <v>16.88</v>
-      </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
